--- a/IO/input.xlsx
+++ b/IO/input.xlsx
@@ -1,33 +1,158 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar\Desktop\Important stuff\Elaine\Elaine\IO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C15F8C-A4A3-4941-B4FF-8A8C232F866E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="students"/>
-    <sheet r:id="rId2" sheetId="2" name="teachers"/>
-    <sheet r:id="rId3" sheetId="3" name="subjects"/>
-    <sheet r:id="rId4" sheetId="4" name="rooms"/>
+    <sheet name="students" sheetId="1" r:id="rId1"/>
+    <sheet name="teachers" sheetId="2" r:id="rId2"/>
+    <sheet name="subjects" sheetId="3" r:id="rId3"/>
+    <sheet name="rooms" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>forename</t>
+  </si>
+  <si>
+    <t>subjects chosen</t>
+  </si>
+  <si>
+    <t>ST0001</t>
+  </si>
+  <si>
+    <t>ST0002</t>
+  </si>
+  <si>
+    <t>ST0003</t>
+  </si>
+  <si>
+    <t>ST0004</t>
+  </si>
+  <si>
+    <t>ST0005</t>
+  </si>
+  <si>
+    <t>ST0006</t>
+  </si>
+  <si>
+    <t>ST0007</t>
+  </si>
+  <si>
+    <t>ST0008</t>
+  </si>
+  <si>
+    <t>ST0009</t>
+  </si>
+  <si>
+    <t>ST0000</t>
+  </si>
+  <si>
+    <t>Aziz</t>
+  </si>
+  <si>
+    <t>Ridha</t>
+  </si>
+  <si>
+    <t>Malik</t>
+  </si>
+  <si>
+    <t>Danial</t>
+  </si>
+  <si>
+    <t>Barnett</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Minhas</t>
+  </si>
+  <si>
+    <t>Rayaan</t>
+  </si>
+  <si>
+    <t>Farooqi</t>
+  </si>
+  <si>
+    <t>Abdul-Ghani</t>
+  </si>
+  <si>
+    <t>Kain</t>
+  </si>
+  <si>
+    <t>Arlo</t>
+  </si>
+  <si>
+    <t>Gibson</t>
+  </si>
+  <si>
+    <t>Adey</t>
+  </si>
+  <si>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>Moin</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Abaasi</t>
+  </si>
+  <si>
+    <t>Ammaar</t>
+  </si>
+  <si>
+    <t>bioY12, chemY12, mathY12, esY12</t>
+  </si>
+  <si>
+    <t>chemY12, physY12, fmY12</t>
+  </si>
+  <si>
+    <t>psyY12, busY12, polY12, cmathY12</t>
+  </si>
+  <si>
+    <t>polY12, bioY12, chemY12, mathY12</t>
+  </si>
+  <si>
+    <t>sportBTECY12</t>
+  </si>
+  <si>
+    <t>dtY12, physY12, mathY12</t>
+  </si>
+  <si>
+    <t>busY12, econY12, psyY12</t>
+  </si>
+  <si>
+    <t>bioY12, chemY12, mathY12, polY12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -35,13 +160,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -56,23 +193,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -83,10 +218,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -124,71 +259,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -216,7 +351,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -239,11 +374,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -252,13 +387,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -268,7 +403,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -277,7 +412,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -286,7 +421,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -294,10 +429,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -362,45 +497,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="8.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" customWidth="1"/>
+    <col min="4" max="4" width="70.7265625" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -410,21 +701,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -434,21 +725,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="2" width="24.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/IO/input.xlsx
+++ b/IO/input.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar\Desktop\Important stuff\Elaine\Elaine\IO\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C15F8C-A4A3-4941-B4FF-8A8C232F866E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="students" sheetId="1" r:id="rId1"/>
-    <sheet name="teachers" sheetId="2" r:id="rId2"/>
-    <sheet name="subjects" sheetId="3" r:id="rId3"/>
-    <sheet name="rooms" sheetId="4" r:id="rId4"/>
+    <sheet r:id="rId1" sheetId="1" name="students"/>
+    <sheet r:id="rId2" sheetId="2" name="teachers"/>
+    <sheet r:id="rId3" sheetId="3" name="subjects"/>
+    <sheet r:id="rId4" sheetId="4" name="rooms"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -37,121 +31,122 @@
     <t>subjects chosen</t>
   </si>
   <si>
+    <t>ST0000</t>
+  </si>
+  <si>
+    <t>Aziz</t>
+  </si>
+  <si>
+    <t>Ridha</t>
+  </si>
+  <si>
+    <t>bioY12, chemY12, mathY12, esY12</t>
+  </si>
+  <si>
     <t>ST0001</t>
   </si>
   <si>
+    <t>Malik</t>
+  </si>
+  <si>
+    <t>Danial</t>
+  </si>
+  <si>
     <t>ST0002</t>
   </si>
   <si>
+    <t>Barnett</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>chemY12, physY12, fmY12</t>
+  </si>
+  <si>
     <t>ST0003</t>
   </si>
   <si>
+    <t>Minhas</t>
+  </si>
+  <si>
+    <t>Rayaan</t>
+  </si>
+  <si>
+    <t>psyY12, busY12, polY12, cmathY12</t>
+  </si>
+  <si>
     <t>ST0004</t>
   </si>
   <si>
+    <t>Farooqi</t>
+  </si>
+  <si>
+    <t>Abdul-Ghani</t>
+  </si>
+  <si>
+    <t>polY12, bioY12, chemY12, mathY12</t>
+  </si>
+  <si>
     <t>ST0005</t>
   </si>
   <si>
+    <t>Kain</t>
+  </si>
+  <si>
+    <t>Arlo</t>
+  </si>
+  <si>
+    <t>sportBTECY12</t>
+  </si>
+  <si>
     <t>ST0006</t>
   </si>
   <si>
+    <t>Gibson</t>
+  </si>
+  <si>
+    <t>dtY12, physY12, mathY12</t>
+  </si>
+  <si>
     <t>ST0007</t>
   </si>
   <si>
+    <t>Adey</t>
+  </si>
+  <si>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>busY12, econY12, psyY12</t>
+  </si>
+  <si>
     <t>ST0008</t>
   </si>
   <si>
+    <t>Moin</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>bioY12, chemY12, mathY12, polY12</t>
+  </si>
+  <si>
     <t>ST0009</t>
   </si>
   <si>
-    <t>ST0000</t>
-  </si>
-  <si>
-    <t>Aziz</t>
-  </si>
-  <si>
-    <t>Ridha</t>
-  </si>
-  <si>
-    <t>Malik</t>
-  </si>
-  <si>
-    <t>Danial</t>
-  </si>
-  <si>
-    <t>Barnett</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Minhas</t>
-  </si>
-  <si>
-    <t>Rayaan</t>
-  </si>
-  <si>
-    <t>Farooqi</t>
-  </si>
-  <si>
-    <t>Abdul-Ghani</t>
-  </si>
-  <si>
-    <t>Kain</t>
-  </si>
-  <si>
-    <t>Arlo</t>
-  </si>
-  <si>
-    <t>Gibson</t>
-  </si>
-  <si>
-    <t>Adey</t>
-  </si>
-  <si>
-    <t>Ethan</t>
-  </si>
-  <si>
-    <t>Moin</t>
-  </si>
-  <si>
-    <t>Ali</t>
-  </si>
-  <si>
     <t>Abaasi</t>
   </si>
   <si>
     <t>Ammaar</t>
-  </si>
-  <si>
-    <t>bioY12, chemY12, mathY12, esY12</t>
-  </si>
-  <si>
-    <t>chemY12, physY12, fmY12</t>
-  </si>
-  <si>
-    <t>psyY12, busY12, polY12, cmathY12</t>
-  </si>
-  <si>
-    <t>polY12, bioY12, chemY12, mathY12</t>
-  </si>
-  <si>
-    <t>sportBTECY12</t>
-  </si>
-  <si>
-    <t>dtY12, physY12, mathY12</t>
-  </si>
-  <si>
-    <t>busY12, econY12, psyY12</t>
-  </si>
-  <si>
-    <t>bioY12, chemY12, mathY12, polY12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -161,10 +156,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -176,12 +171,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFffff00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -189,25 +183,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+  <cellXfs count="4">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -218,10 +232,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -259,71 +273,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -351,7 +365,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -374,11 +388,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -387,13 +401,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -403,7 +417,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -412,7 +426,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -421,7 +435,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -429,10 +443,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -497,201 +511,197 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" customWidth="1"/>
-    <col min="4" max="4" width="70.7265625" customWidth="1"/>
-    <col min="5" max="5" width="19.7265625" customWidth="1"/>
+    <col min="1" max="1" style="2" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="70.7192857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C10" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D10" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -701,21 +711,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -725,21 +735,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="2" width="24.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/IO/input.xlsx
+++ b/IO/input.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar\Desktop\Important stuff\Elaine\Elaine\IO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E839EC7C-018A-46A0-97D0-A619B384C303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="students"/>
-    <sheet r:id="rId2" sheetId="2" name="teachers"/>
-    <sheet r:id="rId3" sheetId="3" name="subjects"/>
-    <sheet r:id="rId4" sheetId="4" name="rooms"/>
+    <sheet name="students" sheetId="1" r:id="rId1"/>
+    <sheet name="teachers" sheetId="2" r:id="rId2"/>
+    <sheet name="subjects" sheetId="3" r:id="rId3"/>
+    <sheet name="rooms" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>ID</t>
   </si>
@@ -140,14 +146,88 @@
   </si>
   <si>
     <t>Ammaar</t>
+  </si>
+  <si>
+    <t>subjects they can teach</t>
+  </si>
+  <si>
+    <t>working periods</t>
+  </si>
+  <si>
+    <t>T001</t>
+  </si>
+  <si>
+    <t>T000</t>
+  </si>
+  <si>
+    <t>T002</t>
+  </si>
+  <si>
+    <t>T003</t>
+  </si>
+  <si>
+    <t>T004</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Al-Rubaiai</t>
+  </si>
+  <si>
+    <t>Fletcher</t>
+  </si>
+  <si>
+    <t>Roskell</t>
+  </si>
+  <si>
+    <t>Lago-Costa</t>
+  </si>
+  <si>
+    <t>Stuart</t>
+  </si>
+  <si>
+    <t>Teeba</t>
+  </si>
+  <si>
+    <t>Símóné</t>
+  </si>
+  <si>
+    <t>Elaine</t>
+  </si>
+  <si>
+    <t>Raquel</t>
+  </si>
+  <si>
+    <t>SEPchemY10, SEPchemY11, chemY12, chemY13</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>note * means all periods</t>
+  </si>
+  <si>
+    <t>dstY8, csY9, csY10, csY11</t>
+  </si>
+  <si>
+    <t>scY7, scY8, phyY9, SEPphyY10, SEPphyY11</t>
+  </si>
+  <si>
+    <t>*w2</t>
+  </si>
+  <si>
+    <t>w1TUESp5</t>
+  </si>
+  <si>
+    <t>w1FRIp2, w2MONp4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,8 +241,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,7 +257,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
+        <fgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -185,16 +277,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -202,26 +294,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -232,10 +322,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -273,71 +363,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,7 +455,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -388,11 +478,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -401,13 +491,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -417,7 +507,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -426,7 +516,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -435,7 +525,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -443,10 +533,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -511,173 +601,175 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="2" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="70.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -687,45 +779,149 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="51.26953125" customWidth="1"/>
+    <col min="5" max="5" width="28.08984375" customWidth="1"/>
+    <col min="6" max="6" width="27.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -735,21 +931,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="2" width="24.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>

--- a/IO/input.xlsx
+++ b/IO/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar\Desktop\Important stuff\Elaine\Elaine\IO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E839EC7C-018A-46A0-97D0-A619B384C303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CB1D3E-56C7-4028-8223-DE50439A42F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>ID</t>
   </si>
@@ -221,6 +221,12 @@
   </si>
   <si>
     <t>w1FRIp2, w2MONp4</t>
+  </si>
+  <si>
+    <t>mathsY11</t>
+  </si>
+  <si>
+    <t>esY7, esY8</t>
   </si>
 </sst>
 </file>
@@ -785,8 +791,8 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -880,6 +886,9 @@
       <c r="C5" t="s">
         <v>56</v>
       </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
       <c r="E5" t="s">
         <v>59</v>
       </c>
@@ -893,6 +902,9 @@
       </c>
       <c r="C6" t="s">
         <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
       </c>
       <c r="E6" t="s">
         <v>65</v>
@@ -911,8 +923,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/IO/input.xlsx
+++ b/IO/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar\Desktop\Important stuff\Elaine\Elaine\IO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CB1D3E-56C7-4028-8223-DE50439A42F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9874D40-FD11-4F69-AF5E-323C71573195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
   <si>
     <t>ID</t>
   </si>
@@ -227,6 +227,66 @@
   </si>
   <si>
     <t>esY7, esY8</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>possible teaching periods</t>
+  </si>
+  <si>
+    <t>possible rooms</t>
+  </si>
+  <si>
+    <t>multiple periods</t>
+  </si>
+  <si>
+    <t>min student</t>
+  </si>
+  <si>
+    <t>max students</t>
+  </si>
+  <si>
+    <t>how many teaching periods</t>
+  </si>
+  <si>
+    <t>number of teachers</t>
+  </si>
+  <si>
+    <t>chemY12</t>
+  </si>
+  <si>
+    <t>mathsY13</t>
+  </si>
+  <si>
+    <t>Year 12 chemistry</t>
+  </si>
+  <si>
+    <t>Year 13 maths</t>
+  </si>
+  <si>
+    <t>w1TUEp1, w2FRIp4</t>
+  </si>
+  <si>
+    <t>L2.2, L2.3</t>
+  </si>
+  <si>
+    <t>D1.2, D2.1</t>
+  </si>
+  <si>
+    <t>max capacity</t>
+  </si>
+  <si>
+    <t>L2.3</t>
+  </si>
+  <si>
+    <t>A1.2</t>
+  </si>
+  <si>
+    <t>A block downstairs room 2</t>
+  </si>
+  <si>
+    <t>Lockhart upstairs room 3</t>
   </si>
 </sst>
 </file>
@@ -921,24 +981,115 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="31.36328125" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -947,20 +1098,50 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="38.453125" customWidth="1"/>
+    <col min="3" max="3" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/IO/input.xlsx
+++ b/IO/input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar\Desktop\Important stuff\Elaine\Elaine\IO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahul\OneDrive\Documents\GitHub\Elaine\IO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9874D40-FD11-4F69-AF5E-323C71573195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A4D2CED-01A3-4317-85E8-5614E69AB668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,25 @@
     <sheet name="subjects" sheetId="3" r:id="rId3"/>
     <sheet name="rooms" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="278">
   <si>
     <t>ID</t>
   </si>
@@ -211,9 +224,6 @@
     <t>dstY8, csY9, csY10, csY11</t>
   </si>
   <si>
-    <t>scY7, scY8, phyY9, SEPphyY10, SEPphyY11</t>
-  </si>
-  <si>
     <t>*w2</t>
   </si>
   <si>
@@ -223,12 +233,6 @@
     <t>w1FRIp2, w2MONp4</t>
   </si>
   <si>
-    <t>mathsY11</t>
-  </si>
-  <si>
-    <t>esY7, esY8</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -256,15 +260,9 @@
     <t>chemY12</t>
   </si>
   <si>
-    <t>mathsY13</t>
-  </si>
-  <si>
     <t>Year 12 chemistry</t>
   </si>
   <si>
-    <t>Year 13 maths</t>
-  </si>
-  <si>
     <t>w1TUEp1, w2FRIp4</t>
   </si>
   <si>
@@ -287,13 +285,598 @@
   </si>
   <si>
     <t>Lockhart upstairs room 3</t>
+  </si>
+  <si>
+    <t>ST0011</t>
+  </si>
+  <si>
+    <t>ST0012</t>
+  </si>
+  <si>
+    <t>ST0010</t>
+  </si>
+  <si>
+    <t>ST0013</t>
+  </si>
+  <si>
+    <t>ST0014</t>
+  </si>
+  <si>
+    <t>ST0017</t>
+  </si>
+  <si>
+    <t>ST0016</t>
+  </si>
+  <si>
+    <t>ST0015</t>
+  </si>
+  <si>
+    <t>ST0018</t>
+  </si>
+  <si>
+    <t>ST0019</t>
+  </si>
+  <si>
+    <t>ST0020</t>
+  </si>
+  <si>
+    <t>ST0021</t>
+  </si>
+  <si>
+    <t>ST0022</t>
+  </si>
+  <si>
+    <t>ST0023</t>
+  </si>
+  <si>
+    <t>ST0024</t>
+  </si>
+  <si>
+    <t>ST0025</t>
+  </si>
+  <si>
+    <t>ST0026</t>
+  </si>
+  <si>
+    <t>ST0027</t>
+  </si>
+  <si>
+    <t>ST0028</t>
+  </si>
+  <si>
+    <t>ST0029</t>
+  </si>
+  <si>
+    <t>ST0030</t>
+  </si>
+  <si>
+    <t>ST0031</t>
+  </si>
+  <si>
+    <t>ST0032</t>
+  </si>
+  <si>
+    <t>ST0033</t>
+  </si>
+  <si>
+    <t>ST0034</t>
+  </si>
+  <si>
+    <t>ST0035</t>
+  </si>
+  <si>
+    <t>ST0036</t>
+  </si>
+  <si>
+    <t>ST0037</t>
+  </si>
+  <si>
+    <t>ST0038</t>
+  </si>
+  <si>
+    <t>ST0039</t>
+  </si>
+  <si>
+    <t>ST0040</t>
+  </si>
+  <si>
+    <t>ST0041</t>
+  </si>
+  <si>
+    <t>ST0042</t>
+  </si>
+  <si>
+    <t>ST0043</t>
+  </si>
+  <si>
+    <t>ST0044</t>
+  </si>
+  <si>
+    <t>ST0045</t>
+  </si>
+  <si>
+    <t>ST0046</t>
+  </si>
+  <si>
+    <t>ST0047</t>
+  </si>
+  <si>
+    <t>ST0048</t>
+  </si>
+  <si>
+    <t>ST0049</t>
+  </si>
+  <si>
+    <t>ST0050</t>
+  </si>
+  <si>
+    <t>Chong</t>
+  </si>
+  <si>
+    <t>Surnapenini</t>
+  </si>
+  <si>
+    <t>Bradley</t>
+  </si>
+  <si>
+    <t>Wall</t>
+  </si>
+  <si>
+    <t>Hayes</t>
+  </si>
+  <si>
+    <t>Shaikh</t>
+  </si>
+  <si>
+    <t>Crawford</t>
+  </si>
+  <si>
+    <t>Allan</t>
+  </si>
+  <si>
+    <t>Hyde</t>
+  </si>
+  <si>
+    <t>Mayers</t>
+  </si>
+  <si>
+    <t>Ismali</t>
+  </si>
+  <si>
+    <t>Clare</t>
+  </si>
+  <si>
+    <t>Remmington</t>
+  </si>
+  <si>
+    <t>Barlow</t>
+  </si>
+  <si>
+    <t>Crossley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexander </t>
+  </si>
+  <si>
+    <t>Weitherm</t>
+  </si>
+  <si>
+    <t>Padovani</t>
+  </si>
+  <si>
+    <t>Sharman</t>
+  </si>
+  <si>
+    <t>Chapman</t>
+  </si>
+  <si>
+    <t>Barber</t>
+  </si>
+  <si>
+    <t>Bracewell</t>
+  </si>
+  <si>
+    <t>Rubert</t>
+  </si>
+  <si>
+    <t>Gort</t>
+  </si>
+  <si>
+    <t>Bollingbrooke</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Malik-Imran</t>
+  </si>
+  <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>Hassan</t>
+  </si>
+  <si>
+    <t>Davies</t>
+  </si>
+  <si>
+    <t>Kers</t>
+  </si>
+  <si>
+    <t>Woolf</t>
+  </si>
+  <si>
+    <t>Pattinson</t>
+  </si>
+  <si>
+    <t>Phillips</t>
+  </si>
+  <si>
+    <t>Riaz</t>
+  </si>
+  <si>
+    <t>Mason</t>
+  </si>
+  <si>
+    <t>Hibbile</t>
+  </si>
+  <si>
+    <t>Lander</t>
+  </si>
+  <si>
+    <t>Dow</t>
+  </si>
+  <si>
+    <t>Malpas-Ellam</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Zaina</t>
+  </si>
+  <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t>Jocelyn</t>
+  </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Maya</t>
+  </si>
+  <si>
+    <t>Lisette</t>
+  </si>
+  <si>
+    <t>Bettie</t>
+  </si>
+  <si>
+    <t>Tiger</t>
+  </si>
+  <si>
+    <t>Freya</t>
+  </si>
+  <si>
+    <t>Shoshana</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Cameron</t>
+  </si>
+  <si>
+    <t>Annie</t>
+  </si>
+  <si>
+    <t>Millie</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>Francesca</t>
+  </si>
+  <si>
+    <t>Teix</t>
+  </si>
+  <si>
+    <t>Maisie</t>
+  </si>
+  <si>
+    <t>Abdul</t>
+  </si>
+  <si>
+    <t>Holly</t>
+  </si>
+  <si>
+    <t>Mustafa</t>
+  </si>
+  <si>
+    <t>Abdallah</t>
+  </si>
+  <si>
+    <t>Oliver</t>
+  </si>
+  <si>
+    <t>Roy</t>
+  </si>
+  <si>
+    <t>Madelyn</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>Esa</t>
+  </si>
+  <si>
+    <t>Elsa</t>
+  </si>
+  <si>
+    <t>Anais</t>
+  </si>
+  <si>
+    <t>Antonia</t>
+  </si>
+  <si>
+    <t>D1.2</t>
+  </si>
+  <si>
+    <t>D2.1</t>
+  </si>
+  <si>
+    <t>L2.2</t>
+  </si>
+  <si>
+    <t>Derby downstairs room 2</t>
+  </si>
+  <si>
+    <t>Derby upstairs room 1</t>
+  </si>
+  <si>
+    <t>Lockhart upstairs room 2</t>
+  </si>
+  <si>
+    <t>bioY12</t>
+  </si>
+  <si>
+    <t>mathY12</t>
+  </si>
+  <si>
+    <t>Year 12 maths</t>
+  </si>
+  <si>
+    <t>T005</t>
+  </si>
+  <si>
+    <t>Tarnowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louise </t>
+  </si>
+  <si>
+    <t>SEPbioY10, SEPbioY11, bioY12, bioY13</t>
+  </si>
+  <si>
+    <t>T006</t>
+  </si>
+  <si>
+    <t>T007</t>
+  </si>
+  <si>
+    <t>T008</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>fmY12</t>
+  </si>
+  <si>
+    <t>scY7, scY8, phyY9, SEPphyY10, SEPphyY11, physY12</t>
+  </si>
+  <si>
+    <t>psyY12</t>
+  </si>
+  <si>
+    <t>polY12</t>
+  </si>
+  <si>
+    <t>dtY12</t>
+  </si>
+  <si>
+    <t>busY12, econY12</t>
+  </si>
+  <si>
+    <t>T009</t>
+  </si>
+  <si>
+    <t>T010</t>
+  </si>
+  <si>
+    <t>T011</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>Psychology</t>
+  </si>
+  <si>
+    <t>Thorn</t>
+  </si>
+  <si>
+    <t>Groves</t>
+  </si>
+  <si>
+    <t>Metcalfe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teacher </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business </t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew </t>
+  </si>
+  <si>
+    <t>Kate</t>
+  </si>
+  <si>
+    <t>esY7, esY8, esY12</t>
+  </si>
+  <si>
+    <t>busY12</t>
+  </si>
+  <si>
+    <t>physY12</t>
+  </si>
+  <si>
+    <t>econY12</t>
+  </si>
+  <si>
+    <t>cmathY12</t>
+  </si>
+  <si>
+    <t>Year 12 business</t>
+  </si>
+  <si>
+    <t>Year 12 politics</t>
+  </si>
+  <si>
+    <t>Year 12 psychology</t>
+  </si>
+  <si>
+    <t>Year 12 physics</t>
+  </si>
+  <si>
+    <t>Year 12 economics</t>
+  </si>
+  <si>
+    <t>Year 12 design technology</t>
+  </si>
+  <si>
+    <t>Year 12 sport Btec</t>
+  </si>
+  <si>
+    <t>Year 12 core maths</t>
+  </si>
+  <si>
+    <t>Year 12 biology</t>
+  </si>
+  <si>
+    <t>A2.2</t>
+  </si>
+  <si>
+    <t>A block upstairs room 2</t>
+  </si>
+  <si>
+    <t>M3.5</t>
+  </si>
+  <si>
+    <t>M3.15</t>
+  </si>
+  <si>
+    <t>D2.3</t>
+  </si>
+  <si>
+    <t>T1.3</t>
+  </si>
+  <si>
+    <t>C2.5</t>
+  </si>
+  <si>
+    <t>C2.4</t>
+  </si>
+  <si>
+    <t>Derby upstairs room 3</t>
+  </si>
+  <si>
+    <t>Main 3rd floor room 15</t>
+  </si>
+  <si>
+    <t>Main 3rd floor room 5</t>
+  </si>
+  <si>
+    <t>DT downstairs room 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christophersimon upstairs room 5 </t>
+  </si>
+  <si>
+    <t>Christophersimon upstairs room 4</t>
+  </si>
+  <si>
+    <t>M3.5, M3.15</t>
+  </si>
+  <si>
+    <t>A2.2, L2.2</t>
+  </si>
+  <si>
+    <t>C2.4, C2.5</t>
+  </si>
+  <si>
+    <t>L1.2</t>
+  </si>
+  <si>
+    <t>L1.1</t>
+  </si>
+  <si>
+    <t>Lockhart downstairs room 2</t>
+  </si>
+  <si>
+    <t>Lockhart downstairs room 1</t>
+  </si>
+  <si>
+    <t>L1.1, L1.2</t>
+  </si>
+  <si>
+    <t>Year 12 further maths</t>
+  </si>
+  <si>
+    <t>mathsY11, mathY12, cmathY12, fmY12</t>
+  </si>
+  <si>
+    <t>T012</t>
+  </si>
+  <si>
+    <t>Byrne</t>
+  </si>
+  <si>
+    <t>Vicky</t>
+  </si>
+  <si>
+    <t>fmY12, mathY12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +895,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -360,12 +955,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,15 +1268,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.7265625" bestFit="1" customWidth="1"/>
@@ -837,6 +1434,580 @@
       </c>
       <c r="D11" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" t="s">
+        <v>178</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" t="s">
+        <v>181</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" t="s">
+        <v>185</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" t="s">
+        <v>189</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" t="s">
+        <v>190</v>
+      </c>
+      <c r="D40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" t="s">
+        <v>191</v>
+      </c>
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" t="s">
+        <v>192</v>
+      </c>
+      <c r="D42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" t="s">
+        <v>193</v>
+      </c>
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" t="s">
+        <v>194</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" t="s">
+        <v>196</v>
+      </c>
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" t="s">
+        <v>159</v>
+      </c>
+      <c r="C48" t="s">
+        <v>197</v>
+      </c>
+      <c r="D48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" t="s">
+        <v>198</v>
+      </c>
+      <c r="D49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" t="s">
+        <v>199</v>
+      </c>
+      <c r="D51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" t="s">
+        <v>163</v>
+      </c>
+      <c r="C52" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -849,7 +2020,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -858,11 +2029,11 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1"/>
     <col min="3" max="3" width="11.453125" customWidth="1"/>
     <col min="4" max="4" width="51.26953125" customWidth="1"/>
     <col min="5" max="5" width="28.08984375" customWidth="1"/>
-    <col min="6" max="6" width="27.08984375" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -916,7 +2087,7 @@
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -930,10 +2101,10 @@
         <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -947,7 +2118,7 @@
         <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>273</v>
       </c>
       <c r="E5" t="s">
         <v>59</v>
@@ -964,10 +2135,146 @@
         <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>236</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>274</v>
+      </c>
+      <c r="B14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D14" t="s">
+        <v>277</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -981,22 +2288,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.08984375" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="31.36328125" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" customWidth="1"/>
+    <col min="5" max="5" width="23.90625" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="8" max="8" width="16.90625" customWidth="1"/>
     <col min="9" max="9" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1005,42 +2312,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
         <v>76</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" t="s">
-        <v>81</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -1060,16 +2367,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="C3" t="s">
         <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -1084,7 +2391,267 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>255</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>266</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>12</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>265</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1098,9 +2665,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1116,18 +2683,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C2">
         <v>24</v>
@@ -1135,13 +2702,145 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C3">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>257</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C15">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/IO/input.xlsx
+++ b/IO/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25825"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahul\OneDrive\Documents\GitHub\Elaine\IO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar\Desktop\Important stuff\Elaine\Elaine\IO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A4D2CED-01A3-4317-85E8-5614E69AB668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E1EAEBA-EB32-4485-8695-D5BC3221772D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
@@ -161,78 +161,528 @@
     <t>Ammaar</t>
   </si>
   <si>
+    <t>ST0010</t>
+  </si>
+  <si>
+    <t>Chong</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>ST0011</t>
+  </si>
+  <si>
+    <t>Surnapenini</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>ST0012</t>
+  </si>
+  <si>
+    <t>Bradley</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>ST0013</t>
+  </si>
+  <si>
+    <t>Wall</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>ST0014</t>
+  </si>
+  <si>
+    <t>Hayes</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>ST0015</t>
+  </si>
+  <si>
+    <t>Shaikh</t>
+  </si>
+  <si>
+    <t>Zaina</t>
+  </si>
+  <si>
+    <t>ST0016</t>
+  </si>
+  <si>
+    <t>Crawford</t>
+  </si>
+  <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t>ST0017</t>
+  </si>
+  <si>
+    <t>Allan</t>
+  </si>
+  <si>
+    <t>Jocelyn</t>
+  </si>
+  <si>
+    <t>ST0018</t>
+  </si>
+  <si>
+    <t>Hyde</t>
+  </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
+    <t>ST0019</t>
+  </si>
+  <si>
+    <t>Mayers</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>ST0020</t>
+  </si>
+  <si>
+    <t>Ismali</t>
+  </si>
+  <si>
+    <t>Maya</t>
+  </si>
+  <si>
+    <t>ST0021</t>
+  </si>
+  <si>
+    <t>Clare</t>
+  </si>
+  <si>
+    <t>Lisette</t>
+  </si>
+  <si>
+    <t>ST0022</t>
+  </si>
+  <si>
+    <t>Remmington</t>
+  </si>
+  <si>
+    <t>Bettie</t>
+  </si>
+  <si>
+    <t>ST0023</t>
+  </si>
+  <si>
+    <t>Barlow</t>
+  </si>
+  <si>
+    <t>Tiger</t>
+  </si>
+  <si>
+    <t>ST0024</t>
+  </si>
+  <si>
+    <t>Crossley</t>
+  </si>
+  <si>
+    <t>Freya</t>
+  </si>
+  <si>
+    <t>ST0025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexander </t>
+  </si>
+  <si>
+    <t>ST0026</t>
+  </si>
+  <si>
+    <t>Weitherm</t>
+  </si>
+  <si>
+    <t>Shoshana</t>
+  </si>
+  <si>
+    <t>ST0027</t>
+  </si>
+  <si>
+    <t>Padovani</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>ST0028</t>
+  </si>
+  <si>
+    <t>Sharman</t>
+  </si>
+  <si>
+    <t>ST0029</t>
+  </si>
+  <si>
+    <t>Chapman</t>
+  </si>
+  <si>
+    <t>Cameron</t>
+  </si>
+  <si>
+    <t>ST0030</t>
+  </si>
+  <si>
+    <t>Barber</t>
+  </si>
+  <si>
+    <t>Annie</t>
+  </si>
+  <si>
+    <t>ST0031</t>
+  </si>
+  <si>
+    <t>Bracewell</t>
+  </si>
+  <si>
+    <t>Millie</t>
+  </si>
+  <si>
+    <t>ST0032</t>
+  </si>
+  <si>
+    <t>Rubert</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>ST0033</t>
+  </si>
+  <si>
+    <t>Gort</t>
+  </si>
+  <si>
+    <t>Francesca</t>
+  </si>
+  <si>
+    <t>ST0034</t>
+  </si>
+  <si>
+    <t>Bollingbrooke</t>
+  </si>
+  <si>
+    <t>Teix</t>
+  </si>
+  <si>
+    <t>ST0035</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Maisie</t>
+  </si>
+  <si>
+    <t>ST0036</t>
+  </si>
+  <si>
+    <t>Malik-Imran</t>
+  </si>
+  <si>
+    <t>Abdul</t>
+  </si>
+  <si>
+    <t>ST0037</t>
+  </si>
+  <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>Holly</t>
+  </si>
+  <si>
+    <t>ST0038</t>
+  </si>
+  <si>
+    <t>Hassan</t>
+  </si>
+  <si>
+    <t>Mustafa</t>
+  </si>
+  <si>
+    <t>ST0039</t>
+  </si>
+  <si>
+    <t>Abdallah</t>
+  </si>
+  <si>
+    <t>ST0040</t>
+  </si>
+  <si>
+    <t>Davies</t>
+  </si>
+  <si>
+    <t>Oliver</t>
+  </si>
+  <si>
+    <t>ST0041</t>
+  </si>
+  <si>
+    <t>Kers</t>
+  </si>
+  <si>
+    <t>Roy</t>
+  </si>
+  <si>
+    <t>ST0042</t>
+  </si>
+  <si>
+    <t>Woolf</t>
+  </si>
+  <si>
+    <t>ST0043</t>
+  </si>
+  <si>
+    <t>Pattinson</t>
+  </si>
+  <si>
+    <t>Madelyn</t>
+  </si>
+  <si>
+    <t>ST0044</t>
+  </si>
+  <si>
+    <t>Phillips</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>ST0045</t>
+  </si>
+  <si>
+    <t>Riaz</t>
+  </si>
+  <si>
+    <t>Esa</t>
+  </si>
+  <si>
+    <t>ST0046</t>
+  </si>
+  <si>
+    <t>Mason</t>
+  </si>
+  <si>
+    <t>Elsa</t>
+  </si>
+  <si>
+    <t>ST0047</t>
+  </si>
+  <si>
+    <t>Hibbile</t>
+  </si>
+  <si>
+    <t>Anais</t>
+  </si>
+  <si>
+    <t>ST0048</t>
+  </si>
+  <si>
+    <t>Lander</t>
+  </si>
+  <si>
+    <t>ST0049</t>
+  </si>
+  <si>
+    <t>Dow</t>
+  </si>
+  <si>
+    <t>Antonia</t>
+  </si>
+  <si>
+    <t>ST0050</t>
+  </si>
+  <si>
+    <t>Malpas-Ellam</t>
+  </si>
+  <si>
     <t>subjects they can teach</t>
   </si>
   <si>
     <t>working periods</t>
   </si>
   <si>
+    <t>T000</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Stuart</t>
+  </si>
+  <si>
+    <t>SEPchemY10, SEPchemY11, chemY12, chemY13</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>note * means all periods</t>
+  </si>
+  <si>
     <t>T001</t>
   </si>
   <si>
-    <t>T000</t>
+    <t>Al-Rubaiai</t>
+  </si>
+  <si>
+    <t>Teeba</t>
+  </si>
+  <si>
+    <t>dstY8, csY9, csY10, csY11</t>
+  </si>
+  <si>
+    <t>*w2</t>
   </si>
   <si>
     <t>T002</t>
   </si>
   <si>
+    <t>Fletcher</t>
+  </si>
+  <si>
+    <t>Símóné</t>
+  </si>
+  <si>
+    <t>scY7, scY8, phyY9, SEPphyY10, SEPphyY11, physY12</t>
+  </si>
+  <si>
+    <t>w1TUESp5</t>
+  </si>
+  <si>
     <t>T003</t>
   </si>
   <si>
+    <t>Roskell</t>
+  </si>
+  <si>
+    <t>Elaine</t>
+  </si>
+  <si>
+    <t>mathsY11, mathY12, cmathY12, fmY12</t>
+  </si>
+  <si>
     <t>T004</t>
   </si>
   <si>
-    <t>Taylor</t>
-  </si>
-  <si>
-    <t>Al-Rubaiai</t>
-  </si>
-  <si>
-    <t>Fletcher</t>
-  </si>
-  <si>
-    <t>Roskell</t>
-  </si>
-  <si>
     <t>Lago-Costa</t>
   </si>
   <si>
-    <t>Stuart</t>
-  </si>
-  <si>
-    <t>Teeba</t>
-  </si>
-  <si>
-    <t>Símóné</t>
-  </si>
-  <si>
-    <t>Elaine</t>
-  </si>
-  <si>
     <t>Raquel</t>
   </si>
   <si>
-    <t>SEPchemY10, SEPchemY11, chemY12, chemY13</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>note * means all periods</t>
-  </si>
-  <si>
-    <t>dstY8, csY9, csY10, csY11</t>
-  </si>
-  <si>
-    <t>*w2</t>
-  </si>
-  <si>
-    <t>w1TUESp5</t>
+    <t>esY7, esY8, esY12</t>
   </si>
   <si>
     <t>w1FRIp2, w2MONp4</t>
   </si>
   <si>
+    <t>T005</t>
+  </si>
+  <si>
+    <t>Tarnowski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louise </t>
+  </si>
+  <si>
+    <t>SEPbioY10, SEPbioY11, bioY12, bioY13</t>
+  </si>
+  <si>
+    <t>T006</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>fmY12</t>
+  </si>
+  <si>
+    <t>T007</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>Psychology</t>
+  </si>
+  <si>
+    <t>psyY12</t>
+  </si>
+  <si>
+    <t>T008</t>
+  </si>
+  <si>
+    <t>Thorn</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>polY12</t>
+  </si>
+  <si>
+    <t>T009</t>
+  </si>
+  <si>
+    <t>Groves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew </t>
+  </si>
+  <si>
+    <t>T010</t>
+  </si>
+  <si>
+    <t>Metcalfe</t>
+  </si>
+  <si>
+    <t>Kate</t>
+  </si>
+  <si>
+    <t>dtY12</t>
+  </si>
+  <si>
+    <t>T011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teacher </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business </t>
+  </si>
+  <si>
+    <t>busY12, econY12</t>
+  </si>
+  <si>
+    <t>T012</t>
+  </si>
+  <si>
+    <t>Byrne</t>
+  </si>
+  <si>
+    <t>Vicky</t>
+  </si>
+  <si>
+    <t>fmY12, mathY12</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -251,12 +701,12 @@
     <t>max students</t>
   </si>
   <si>
+    <t>number of teachers</t>
+  </si>
+  <si>
     <t>how many teaching periods</t>
   </si>
   <si>
-    <t>number of teachers</t>
-  </si>
-  <si>
     <t>chemY12</t>
   </si>
   <si>
@@ -269,525 +719,108 @@
     <t>L2.2, L2.3</t>
   </si>
   <si>
+    <t>mathY12</t>
+  </si>
+  <si>
+    <t>Year 12 maths</t>
+  </si>
+  <si>
     <t>D1.2, D2.1</t>
   </si>
   <si>
+    <t>busY12</t>
+  </si>
+  <si>
+    <t>Year 12 business</t>
+  </si>
+  <si>
+    <t>M3.5, M3.15</t>
+  </si>
+  <si>
+    <t>Year 12 politics</t>
+  </si>
+  <si>
+    <t>Year 12 psychology</t>
+  </si>
+  <si>
+    <t>physY12</t>
+  </si>
+  <si>
+    <t>Year 12 physics</t>
+  </si>
+  <si>
+    <t>L1.1, L1.2</t>
+  </si>
+  <si>
+    <t>econY12</t>
+  </si>
+  <si>
+    <t>Year 12 economics</t>
+  </si>
+  <si>
+    <t>Year 12 design technology</t>
+  </si>
+  <si>
+    <t>T1.3</t>
+  </si>
+  <si>
+    <t>Year 12 sport Btec</t>
+  </si>
+  <si>
+    <t>C2.4, C2.5</t>
+  </si>
+  <si>
+    <t>cmathY12</t>
+  </si>
+  <si>
+    <t>Year 12 core maths</t>
+  </si>
+  <si>
+    <t>bioY12</t>
+  </si>
+  <si>
+    <t>Year 12 biology</t>
+  </si>
+  <si>
+    <t>A2.2, L2.2</t>
+  </si>
+  <si>
+    <t>Year 12 further maths</t>
+  </si>
+  <si>
     <t>max capacity</t>
   </si>
   <si>
     <t>L2.3</t>
   </si>
   <si>
+    <t>Lockhart upstairs room 3</t>
+  </si>
+  <si>
     <t>A1.2</t>
   </si>
   <si>
     <t>A block downstairs room 2</t>
   </si>
   <si>
-    <t>Lockhart upstairs room 3</t>
-  </si>
-  <si>
-    <t>ST0011</t>
-  </si>
-  <si>
-    <t>ST0012</t>
-  </si>
-  <si>
-    <t>ST0010</t>
-  </si>
-  <si>
-    <t>ST0013</t>
-  </si>
-  <si>
-    <t>ST0014</t>
-  </si>
-  <si>
-    <t>ST0017</t>
-  </si>
-  <si>
-    <t>ST0016</t>
-  </si>
-  <si>
-    <t>ST0015</t>
-  </si>
-  <si>
-    <t>ST0018</t>
-  </si>
-  <si>
-    <t>ST0019</t>
-  </si>
-  <si>
-    <t>ST0020</t>
-  </si>
-  <si>
-    <t>ST0021</t>
-  </si>
-  <si>
-    <t>ST0022</t>
-  </si>
-  <si>
-    <t>ST0023</t>
-  </si>
-  <si>
-    <t>ST0024</t>
-  </si>
-  <si>
-    <t>ST0025</t>
-  </si>
-  <si>
-    <t>ST0026</t>
-  </si>
-  <si>
-    <t>ST0027</t>
-  </si>
-  <si>
-    <t>ST0028</t>
-  </si>
-  <si>
-    <t>ST0029</t>
-  </si>
-  <si>
-    <t>ST0030</t>
-  </si>
-  <si>
-    <t>ST0031</t>
-  </si>
-  <si>
-    <t>ST0032</t>
-  </si>
-  <si>
-    <t>ST0033</t>
-  </si>
-  <si>
-    <t>ST0034</t>
-  </si>
-  <si>
-    <t>ST0035</t>
-  </si>
-  <si>
-    <t>ST0036</t>
-  </si>
-  <si>
-    <t>ST0037</t>
-  </si>
-  <si>
-    <t>ST0038</t>
-  </si>
-  <si>
-    <t>ST0039</t>
-  </si>
-  <si>
-    <t>ST0040</t>
-  </si>
-  <si>
-    <t>ST0041</t>
-  </si>
-  <si>
-    <t>ST0042</t>
-  </si>
-  <si>
-    <t>ST0043</t>
-  </si>
-  <si>
-    <t>ST0044</t>
-  </si>
-  <si>
-    <t>ST0045</t>
-  </si>
-  <si>
-    <t>ST0046</t>
-  </si>
-  <si>
-    <t>ST0047</t>
-  </si>
-  <si>
-    <t>ST0048</t>
-  </si>
-  <si>
-    <t>ST0049</t>
-  </si>
-  <si>
-    <t>ST0050</t>
-  </si>
-  <si>
-    <t>Chong</t>
-  </si>
-  <si>
-    <t>Surnapenini</t>
-  </si>
-  <si>
-    <t>Bradley</t>
-  </si>
-  <si>
-    <t>Wall</t>
-  </si>
-  <si>
-    <t>Hayes</t>
-  </si>
-  <si>
-    <t>Shaikh</t>
-  </si>
-  <si>
-    <t>Crawford</t>
-  </si>
-  <si>
-    <t>Allan</t>
-  </si>
-  <si>
-    <t>Hyde</t>
-  </si>
-  <si>
-    <t>Mayers</t>
-  </si>
-  <si>
-    <t>Ismali</t>
-  </si>
-  <si>
-    <t>Clare</t>
-  </si>
-  <si>
-    <t>Remmington</t>
-  </si>
-  <si>
-    <t>Barlow</t>
-  </si>
-  <si>
-    <t>Crossley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexander </t>
-  </si>
-  <si>
-    <t>Weitherm</t>
-  </si>
-  <si>
-    <t>Padovani</t>
-  </si>
-  <si>
-    <t>Sharman</t>
-  </si>
-  <si>
-    <t>Chapman</t>
-  </si>
-  <si>
-    <t>Barber</t>
-  </si>
-  <si>
-    <t>Bracewell</t>
-  </si>
-  <si>
-    <t>Rubert</t>
-  </si>
-  <si>
-    <t>Gort</t>
-  </si>
-  <si>
-    <t>Bollingbrooke</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Malik-Imran</t>
-  </si>
-  <si>
-    <t>Russell</t>
-  </si>
-  <si>
-    <t>Hassan</t>
-  </si>
-  <si>
-    <t>Davies</t>
-  </si>
-  <si>
-    <t>Kers</t>
-  </si>
-  <si>
-    <t>Woolf</t>
-  </si>
-  <si>
-    <t>Pattinson</t>
-  </si>
-  <si>
-    <t>Phillips</t>
-  </si>
-  <si>
-    <t>Riaz</t>
-  </si>
-  <si>
-    <t>Mason</t>
-  </si>
-  <si>
-    <t>Hibbile</t>
-  </si>
-  <si>
-    <t>Lander</t>
-  </si>
-  <si>
-    <t>Dow</t>
-  </si>
-  <si>
-    <t>Malpas-Ellam</t>
-  </si>
-  <si>
-    <t>Oscar</t>
-  </si>
-  <si>
-    <t>Rahul</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Charlie</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>Zaina</t>
-  </si>
-  <si>
-    <t>Eva</t>
-  </si>
-  <si>
-    <t>Jocelyn</t>
-  </si>
-  <si>
-    <t>Ruby</t>
-  </si>
-  <si>
-    <t>Emma</t>
-  </si>
-  <si>
-    <t>Maya</t>
-  </si>
-  <si>
-    <t>Lisette</t>
-  </si>
-  <si>
-    <t>Bettie</t>
-  </si>
-  <si>
-    <t>Tiger</t>
-  </si>
-  <si>
-    <t>Freya</t>
-  </si>
-  <si>
-    <t>Shoshana</t>
-  </si>
-  <si>
-    <t>Bruno</t>
-  </si>
-  <si>
-    <t>Cameron</t>
-  </si>
-  <si>
-    <t>Annie</t>
-  </si>
-  <si>
-    <t>Millie</t>
-  </si>
-  <si>
-    <t>Jacob</t>
-  </si>
-  <si>
-    <t>Francesca</t>
-  </si>
-  <si>
-    <t>Teix</t>
-  </si>
-  <si>
-    <t>Maisie</t>
-  </si>
-  <si>
-    <t>Abdul</t>
-  </si>
-  <si>
-    <t>Holly</t>
-  </si>
-  <si>
-    <t>Mustafa</t>
-  </si>
-  <si>
-    <t>Abdallah</t>
-  </si>
-  <si>
-    <t>Oliver</t>
-  </si>
-  <si>
-    <t>Roy</t>
-  </si>
-  <si>
-    <t>Madelyn</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>Esa</t>
-  </si>
-  <si>
-    <t>Elsa</t>
-  </si>
-  <si>
-    <t>Anais</t>
-  </si>
-  <si>
-    <t>Antonia</t>
-  </si>
-  <si>
     <t>D1.2</t>
   </si>
   <si>
+    <t>Derby downstairs room 2</t>
+  </si>
+  <si>
     <t>D2.1</t>
   </si>
   <si>
+    <t>Derby upstairs room 1</t>
+  </si>
+  <si>
     <t>L2.2</t>
   </si>
   <si>
-    <t>Derby downstairs room 2</t>
-  </si>
-  <si>
-    <t>Derby upstairs room 1</t>
-  </si>
-  <si>
     <t>Lockhart upstairs room 2</t>
   </si>
   <si>
-    <t>bioY12</t>
-  </si>
-  <si>
-    <t>mathY12</t>
-  </si>
-  <si>
-    <t>Year 12 maths</t>
-  </si>
-  <si>
-    <t>T005</t>
-  </si>
-  <si>
-    <t>Tarnowski</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Louise </t>
-  </si>
-  <si>
-    <t>SEPbioY10, SEPbioY11, bioY12, bioY13</t>
-  </si>
-  <si>
-    <t>T006</t>
-  </si>
-  <si>
-    <t>T007</t>
-  </si>
-  <si>
-    <t>T008</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>fmY12</t>
-  </si>
-  <si>
-    <t>scY7, scY8, phyY9, SEPphyY10, SEPphyY11, physY12</t>
-  </si>
-  <si>
-    <t>psyY12</t>
-  </si>
-  <si>
-    <t>polY12</t>
-  </si>
-  <si>
-    <t>dtY12</t>
-  </si>
-  <si>
-    <t>busY12, econY12</t>
-  </si>
-  <si>
-    <t>T009</t>
-  </si>
-  <si>
-    <t>T010</t>
-  </si>
-  <si>
-    <t>T011</t>
-  </si>
-  <si>
-    <t>Teacher</t>
-  </si>
-  <si>
-    <t>Psychology</t>
-  </si>
-  <si>
-    <t>Thorn</t>
-  </si>
-  <si>
-    <t>Groves</t>
-  </si>
-  <si>
-    <t>Metcalfe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teacher </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business </t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrew </t>
-  </si>
-  <si>
-    <t>Kate</t>
-  </si>
-  <si>
-    <t>esY7, esY8, esY12</t>
-  </si>
-  <si>
-    <t>busY12</t>
-  </si>
-  <si>
-    <t>physY12</t>
-  </si>
-  <si>
-    <t>econY12</t>
-  </si>
-  <si>
-    <t>cmathY12</t>
-  </si>
-  <si>
-    <t>Year 12 business</t>
-  </si>
-  <si>
-    <t>Year 12 politics</t>
-  </si>
-  <si>
-    <t>Year 12 psychology</t>
-  </si>
-  <si>
-    <t>Year 12 physics</t>
-  </si>
-  <si>
-    <t>Year 12 economics</t>
-  </si>
-  <si>
-    <t>Year 12 design technology</t>
-  </si>
-  <si>
-    <t>Year 12 sport Btec</t>
-  </si>
-  <si>
-    <t>Year 12 core maths</t>
-  </si>
-  <si>
-    <t>Year 12 biology</t>
-  </si>
-  <si>
     <t>A2.2</t>
   </si>
   <si>
@@ -797,86 +830,53 @@
     <t>M3.5</t>
   </si>
   <si>
+    <t>Main 3rd floor room 5</t>
+  </si>
+  <si>
     <t>M3.15</t>
   </si>
   <si>
+    <t>Main 3rd floor room 15</t>
+  </si>
+  <si>
     <t>D2.3</t>
   </si>
   <si>
-    <t>T1.3</t>
+    <t>Derby upstairs room 3</t>
+  </si>
+  <si>
+    <t>DT downstairs room 3</t>
   </si>
   <si>
     <t>C2.5</t>
   </si>
   <si>
+    <t xml:space="preserve">Christophersimon upstairs room 5 </t>
+  </si>
+  <si>
     <t>C2.4</t>
   </si>
   <si>
-    <t>Derby upstairs room 3</t>
-  </si>
-  <si>
-    <t>Main 3rd floor room 15</t>
-  </si>
-  <si>
-    <t>Main 3rd floor room 5</t>
-  </si>
-  <si>
-    <t>DT downstairs room 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christophersimon upstairs room 5 </t>
-  </si>
-  <si>
     <t>Christophersimon upstairs room 4</t>
   </si>
   <si>
-    <t>M3.5, M3.15</t>
-  </si>
-  <si>
-    <t>A2.2, L2.2</t>
-  </si>
-  <si>
-    <t>C2.4, C2.5</t>
-  </si>
-  <si>
     <t>L1.2</t>
   </si>
   <si>
+    <t>Lockhart downstairs room 2</t>
+  </si>
+  <si>
     <t>L1.1</t>
   </si>
   <si>
-    <t>Lockhart downstairs room 2</t>
-  </si>
-  <si>
     <t>Lockhart downstairs room 1</t>
-  </si>
-  <si>
-    <t>L1.1, L1.2</t>
-  </si>
-  <si>
-    <t>Year 12 further maths</t>
-  </si>
-  <si>
-    <t>mathsY11, mathY12, cmathY12, fmY12</t>
-  </si>
-  <si>
-    <t>T012</t>
-  </si>
-  <si>
-    <t>Byrne</t>
-  </si>
-  <si>
-    <t>Vicky</t>
-  </si>
-  <si>
-    <t>fmY12, mathY12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1270,19 +1270,19 @@
   </sheetPr>
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="18.75" customHeight="1">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="18.75" customHeight="1">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1436,575 +1436,575 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>167</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>168</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>170</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>171</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>173</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>174</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>177</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>178</v>
+        <v>85</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>168</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>180</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B30" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B31" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>181</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>182</v>
+        <v>101</v>
       </c>
       <c r="D32" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" t="s">
         <v>104</v>
-      </c>
-      <c r="B33" t="s">
-        <v>145</v>
-      </c>
-      <c r="C33" t="s">
-        <v>183</v>
       </c>
       <c r="D33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>105</v>
       </c>
       <c r="B34" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B35" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="C35" t="s">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>186</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B37" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="C37" t="s">
-        <v>187</v>
+        <v>116</v>
       </c>
       <c r="D37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B38" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="C38" t="s">
-        <v>188</v>
+        <v>119</v>
       </c>
       <c r="D38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B39" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="C39" t="s">
-        <v>189</v>
+        <v>122</v>
       </c>
       <c r="D39" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B40" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="C40" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="D40" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B41" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="C41" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="D41" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B42" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="D42" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B43" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="C43" t="s">
-        <v>193</v>
+        <v>133</v>
       </c>
       <c r="D43" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B44" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>168</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="B45" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="C45" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="B46" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="C46" t="s">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="D46" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B47" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C47" t="s">
-        <v>196</v>
+        <v>144</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4">
       <c r="A48" s="3" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="B48" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C48" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="D48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="B49" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C49" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
       <c r="D49" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="B50" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C50" t="s">
-        <v>168</v>
+        <v>55</v>
       </c>
       <c r="D50" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4">
       <c r="A51" s="3" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="B51" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C51" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="D51" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4">
       <c r="A52" s="3" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="B52" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C52" t="s">
-        <v>170</v>
+        <v>61</v>
       </c>
       <c r="D52" t="s">
         <v>37</v>
@@ -2026,17 +2026,17 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" customWidth="1"/>
-    <col min="4" max="4" width="51.26953125" customWidth="1"/>
-    <col min="5" max="5" width="28.08984375" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2047,234 +2047,234 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>169</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>173</v>
       </c>
       <c r="D4" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>177</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c r="D5" t="s">
-        <v>273</v>
+        <v>179</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>182</v>
       </c>
       <c r="D6" t="s">
-        <v>236</v>
+        <v>183</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="C7" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="D7" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D8" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="C9" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="D9" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="B10" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="C10" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="D10" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="B11" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="C11" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="B12" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="C12" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="D12" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="B13" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="C13" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="B14" t="s">
-        <v>275</v>
+        <v>212</v>
       </c>
       <c r="C14" t="s">
-        <v>276</v>
+        <v>213</v>
       </c>
       <c r="D14" t="s">
-        <v>277</v>
+        <v>214</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2294,60 +2294,60 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="31.36328125" customWidth="1"/>
-    <col min="5" max="5" width="23.90625" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="16.90625" customWidth="1"/>
-    <col min="9" max="9" width="25.54296875" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>215</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>66</v>
+        <v>216</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>67</v>
+        <v>217</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>68</v>
+        <v>218</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>69</v>
+        <v>219</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>72</v>
+        <v>221</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -2365,18 +2365,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -2394,18 +2394,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="D4" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="F4">
         <v>6</v>
@@ -2420,18 +2420,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -2446,18 +2446,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="F6">
         <v>6</v>
@@ -2472,18 +2472,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="D7" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -2498,18 +2498,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>245</v>
-      </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -2524,18 +2524,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="D9" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -2550,18 +2550,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="D10" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2576,18 +2576,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2602,18 +2602,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="D12" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -2628,18 +2628,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="B13" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2667,177 +2667,177 @@
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="38.453125" customWidth="1"/>
-    <col min="3" max="3" width="26.36328125" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>215</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>252</v>
       </c>
       <c r="C2">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>254</v>
       </c>
       <c r="C3">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>256</v>
       </c>
       <c r="C4">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>257</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>258</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>205</v>
+        <v>260</v>
       </c>
       <c r="C6">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C7">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="B8" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C8">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C9">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="B10" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C10">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="B11" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C11">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="B12" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C12">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="C13">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C14">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C15">
         <v>28</v>

--- a/IO/input.xlsx
+++ b/IO/input.xlsx
@@ -864,19 +864,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -938,7 +932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -949,23 +943,26 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1275,28 +1272,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="8.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="70.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="8.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="70.7192857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1310,7 +1307,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1324,7 +1321,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>135</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1338,7 +1335,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>138</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1352,7 +1349,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1366,7 +1363,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>146</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1380,7 +1377,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1394,7 +1391,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>152</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1408,7 +1405,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>156</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1422,7 +1419,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>160</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1436,7 +1433,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>163</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1445,12 +1442,12 @@
       <c r="C12" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>137</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>166</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1459,12 +1456,12 @@
       <c r="C13" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>137</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>169</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1478,7 +1475,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>172</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1492,7 +1489,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>175</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1506,7 +1503,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>178</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1520,7 +1517,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>181</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1534,7 +1531,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>184</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1548,7 +1545,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>187</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1562,7 +1559,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>190</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1576,7 +1573,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>193</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1590,7 +1587,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>196</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1604,7 +1601,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>199</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1618,7 +1615,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>202</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1632,7 +1629,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -1646,7 +1643,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>208</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1660,7 +1657,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>210</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1674,7 +1671,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1688,7 +1685,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>216</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -1702,7 +1699,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>218</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1716,7 +1713,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>221</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -1730,7 +1727,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>224</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -1744,7 +1741,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>227</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -1758,7 +1755,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>230</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -1772,7 +1769,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>233</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -1786,7 +1783,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="7" t="s">
         <v>236</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1800,7 +1797,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -1814,7 +1811,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="4" t="s">
         <v>242</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -1828,7 +1825,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>245</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -1842,7 +1839,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="4" t="s">
         <v>248</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -1856,7 +1853,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4" t="s">
         <v>250</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -1870,7 +1867,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="4" t="s">
         <v>253</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -1884,7 +1881,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="4" t="s">
         <v>256</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -1898,7 +1895,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="4" t="s">
         <v>258</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -1912,7 +1909,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>261</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -1926,7 +1923,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>264</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -1940,7 +1937,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -1954,7 +1951,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="7" t="s">
         <v>270</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -1968,7 +1965,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="4" t="s">
         <v>273</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -1982,7 +1979,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="7" t="s">
         <v>275</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -1996,7 +1993,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="7" t="s">
         <v>278</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -2025,12 +2022,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="51.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="28.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="27.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="51.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="28.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="27.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -2225,7 +2222,7 @@
       <c r="C11" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -2261,7 +2258,7 @@
       <c r="C13" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -2303,18 +2300,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="33.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="31.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="33.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="31.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="10" width="25.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2343,7 +2340,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -2353,26 +2350,26 @@
       <c r="C2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>6</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>12</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>2</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="5">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
@@ -2382,287 +2379,287 @@
       <c r="C3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>12</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>2</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>6</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>12</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>2</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>6</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>12</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>2</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>6</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>12</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>2</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="5">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>6</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>12</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>2</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="5">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>6</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <v>12</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>2</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="5">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>6</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="5">
         <v>12</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>2</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="5">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <v>1</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="5">
         <v>12</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <v>2</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="5">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <v>1</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="5">
         <v>12</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="5">
         <v>2</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="5">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>68</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <v>6</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="5">
         <v>12</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <v>2</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="5">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3" t="s">
         <v>70</v>
       </c>
@@ -2672,22 +2669,22 @@
       <c r="C13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <v>1</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="5">
         <v>20</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>3</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="5">
         <v>15</v>
       </c>
     </row>
@@ -2707,9 +2704,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="38.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="26.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="38.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="26.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -2727,10 +2724,10 @@
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>24</v>
       </c>
     </row>
@@ -2738,10 +2735,10 @@
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>12</v>
       </c>
     </row>
@@ -2749,10 +2746,10 @@
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>20</v>
       </c>
     </row>
@@ -2760,10 +2757,10 @@
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>20</v>
       </c>
     </row>
@@ -2771,10 +2768,10 @@
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>24</v>
       </c>
     </row>
@@ -2782,10 +2779,10 @@
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>24</v>
       </c>
     </row>
@@ -2793,10 +2790,10 @@
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>20</v>
       </c>
     </row>
@@ -2804,10 +2801,10 @@
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>20</v>
       </c>
     </row>
@@ -2815,10 +2812,10 @@
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>20</v>
       </c>
     </row>
@@ -2826,10 +2823,10 @@
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>12</v>
       </c>
     </row>
@@ -2837,10 +2834,10 @@
       <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>20</v>
       </c>
     </row>
@@ -2848,10 +2845,10 @@
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <v>24</v>
       </c>
     </row>
@@ -2859,10 +2856,10 @@
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="5">
         <v>28</v>
       </c>
     </row>
@@ -2870,10 +2867,10 @@
       <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="5">
         <v>28</v>
       </c>
     </row>

--- a/IO/input.xlsx
+++ b/IO/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="students"/>
@@ -864,19 +864,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -938,7 +932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -949,23 +943,26 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1275,28 +1272,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="8.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="70.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="8.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="70.7192857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1310,7 +1307,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1324,7 +1321,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>135</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1338,7 +1335,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>138</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1352,7 +1349,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1366,7 +1363,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>146</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1380,7 +1377,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1394,7 +1391,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>152</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1408,7 +1405,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>156</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1422,7 +1419,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>160</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1436,7 +1433,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>163</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1445,12 +1442,12 @@
       <c r="C12" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>137</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>166</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1459,12 +1456,12 @@
       <c r="C13" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>137</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>169</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1478,7 +1475,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>172</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1492,7 +1489,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>175</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1506,7 +1503,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>178</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1520,7 +1517,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>181</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1534,7 +1531,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>184</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1548,7 +1545,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>187</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1562,7 +1559,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>190</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1576,7 +1573,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>193</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1590,7 +1587,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>196</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1604,7 +1601,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>199</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1618,7 +1615,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>202</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1632,7 +1629,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -1646,7 +1643,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>208</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1660,7 +1657,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>210</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1674,7 +1671,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1688,7 +1685,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>216</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -1702,7 +1699,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>218</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1716,7 +1713,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>221</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -1730,7 +1727,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>224</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -1744,7 +1741,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>227</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -1758,7 +1755,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>230</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -1772,7 +1769,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>233</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -1786,7 +1783,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="7" t="s">
         <v>236</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1800,7 +1797,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -1814,7 +1811,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="4" t="s">
         <v>242</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -1828,7 +1825,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>245</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -1842,7 +1839,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="4" t="s">
         <v>248</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -1856,7 +1853,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4" t="s">
         <v>250</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -1870,7 +1867,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="4" t="s">
         <v>253</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -1884,7 +1881,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="4" t="s">
         <v>256</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -1898,7 +1895,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="4" t="s">
         <v>258</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -1912,7 +1909,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>261</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -1926,7 +1923,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>264</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -1940,7 +1937,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -1954,7 +1951,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="7" t="s">
         <v>270</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -1968,7 +1965,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="4" t="s">
         <v>273</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -1982,7 +1979,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="7" t="s">
         <v>275</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -1996,7 +1993,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="7" t="s">
         <v>278</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -2021,16 +2018,16 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="51.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="28.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="27.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="51.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="28.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="27.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -2225,7 +2222,7 @@
       <c r="C11" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -2261,7 +2258,7 @@
       <c r="C13" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>122</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -2299,19 +2296,19 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="33.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="31.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="33.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="31.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="10" width="25.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -2353,22 +2350,22 @@
       <c r="C2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>6</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>12</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>2</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="5">
         <v>10</v>
       </c>
     </row>
@@ -2382,22 +2379,22 @@
       <c r="C3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>12</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>2</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <v>10</v>
       </c>
     </row>
@@ -2405,28 +2402,28 @@
       <c r="A4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>6</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>12</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>2</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <v>10</v>
       </c>
     </row>
@@ -2434,28 +2431,28 @@
       <c r="A5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>6</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>12</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>2</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <v>10</v>
       </c>
     </row>
@@ -2463,28 +2460,28 @@
       <c r="A6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>6</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>12</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>2</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="5">
         <v>10</v>
       </c>
     </row>
@@ -2492,28 +2489,28 @@
       <c r="A7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>6</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>12</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>2</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="5">
         <v>10</v>
       </c>
     </row>
@@ -2521,28 +2518,28 @@
       <c r="A8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>6</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <v>12</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>2</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="5">
         <v>10</v>
       </c>
     </row>
@@ -2550,57 +2547,57 @@
       <c r="A9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>6</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="5">
         <v>12</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>2</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="5">
         <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <v>1</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="5">
         <v>12</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <v>2</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="5">
         <v>10</v>
       </c>
     </row>
@@ -2608,28 +2605,28 @@
       <c r="A11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <v>1</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="5">
         <v>12</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="5">
         <v>2</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="5">
         <v>10</v>
       </c>
     </row>
@@ -2637,28 +2634,28 @@
       <c r="A12" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>68</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <v>6</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="5">
         <v>12</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <v>2</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="5">
         <v>10</v>
       </c>
     </row>
@@ -2672,22 +2669,22 @@
       <c r="C13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <v>1</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="5">
         <v>20</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>3</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="5">
         <v>15</v>
       </c>
     </row>
@@ -2707,9 +2704,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="38.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="26.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="38.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="26.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -2727,10 +2724,10 @@
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>24</v>
       </c>
     </row>
@@ -2738,10 +2735,10 @@
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>12</v>
       </c>
     </row>
@@ -2749,10 +2746,10 @@
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>20</v>
       </c>
     </row>
@@ -2760,10 +2757,10 @@
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>20</v>
       </c>
     </row>
@@ -2771,10 +2768,10 @@
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>24</v>
       </c>
     </row>
@@ -2782,10 +2779,10 @@
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>24</v>
       </c>
     </row>
@@ -2793,10 +2790,10 @@
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>20</v>
       </c>
     </row>
@@ -2804,10 +2801,10 @@
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>20</v>
       </c>
     </row>
@@ -2815,10 +2812,10 @@
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>20</v>
       </c>
     </row>
@@ -2826,10 +2823,10 @@
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>12</v>
       </c>
     </row>
@@ -2837,10 +2834,10 @@
       <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>20</v>
       </c>
     </row>
@@ -2848,10 +2845,10 @@
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <v>24</v>
       </c>
     </row>
@@ -2859,10 +2856,10 @@
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="5">
         <v>28</v>
       </c>
     </row>
@@ -2870,10 +2867,10 @@
       <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="5">
         <v>28</v>
       </c>
     </row>

--- a/IO/input.xlsx
+++ b/IO/input.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar\Desktop\Important stuff\Elaine\Elaine\IO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCC586A-9440-44AE-BED0-2E320990AEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="students"/>
-    <sheet r:id="rId2" sheetId="2" name="teachers"/>
-    <sheet r:id="rId3" sheetId="3" name="subjects"/>
-    <sheet r:id="rId4" sheetId="4" name="rooms"/>
+    <sheet name="students" sheetId="1" r:id="rId1"/>
+    <sheet name="teachers" sheetId="2" r:id="rId2"/>
+    <sheet name="subjects" sheetId="3" r:id="rId3"/>
+    <sheet name="rooms" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="282">
   <si>
     <t>ID</t>
   </si>
@@ -857,13 +863,18 @@
   </si>
   <si>
     <t>Malpas-Ellam</t>
+  </si>
+  <si>
+    <t>esY12</t>
+  </si>
+  <si>
+    <t>Year 12 spanish</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -894,7 +905,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
+        <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -908,16 +919,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,47 +943,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -983,10 +991,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1024,71 +1032,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1116,7 +1124,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1139,11 +1147,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1152,13 +1160,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1168,7 +1176,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1177,7 +1185,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1186,7 +1194,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1194,10 +1202,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1262,7 +1270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1270,15 +1278,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="9" width="8.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="70.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="8.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1292,717 +1300,717 @@
         <v>127</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>153</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>154</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>155</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
         <v>159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" t="s">
         <v>162</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>167</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" t="s">
         <v>168</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" t="s">
         <v>171</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" t="s">
         <v>131</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" t="s">
         <v>174</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" t="s">
         <v>177</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>179</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" t="s">
         <v>180</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>182</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" t="s">
         <v>145</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>185</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" t="s">
         <v>186</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>188</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" t="s">
         <v>189</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" t="s">
         <v>151</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>191</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" t="s">
         <v>192</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" t="s">
         <v>155</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>194</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" t="s">
         <v>195</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" t="s">
         <v>159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>197</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" t="s">
         <v>198</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
         <v>200</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" t="s">
         <v>201</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" t="s">
         <v>131</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
         <v>203</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" t="s">
         <v>204</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" t="s">
         <v>131</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
         <v>206</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" t="s">
         <v>207</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" t="s">
         <v>137</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s">
         <v>209</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" t="s">
         <v>177</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" t="s">
         <v>141</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s">
         <v>211</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" t="s">
         <v>212</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" t="s">
         <v>145</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s">
         <v>214</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" t="s">
         <v>215</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s">
         <v>217</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" t="s">
         <v>165</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" t="s">
         <v>151</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" t="s">
         <v>219</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" t="s">
         <v>220</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" t="s">
         <v>155</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s">
         <v>222</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" t="s">
         <v>223</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" t="s">
         <v>159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" t="s">
         <v>225</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" t="s">
         <v>226</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" t="s">
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" t="s">
         <v>228</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" t="s">
         <v>229</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" t="s">
         <v>131</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" t="s">
         <v>231</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" t="s">
         <v>232</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" t="s">
         <v>131</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" t="s">
         <v>234</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" t="s">
         <v>235</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" t="s">
         <v>137</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" t="s">
         <v>237</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" t="s">
         <v>238</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" t="s">
         <v>141</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" t="s">
         <v>240</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" t="s">
         <v>241</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" t="s">
         <v>145</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" t="s">
         <v>243</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" t="s">
         <v>244</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" t="s">
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" t="s">
         <v>246</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" t="s">
         <v>247</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" t="s">
         <v>151</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" t="s">
         <v>246</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" t="s">
         <v>249</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" t="s">
         <v>155</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" t="s">
         <v>251</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" t="s">
         <v>252</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" t="s">
         <v>159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" t="s">
         <v>254</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" t="s">
         <v>255</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" t="s">
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" t="s">
         <v>257</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" t="s">
         <v>177</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" t="s">
         <v>131</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" t="s">
         <v>259</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" t="s">
         <v>260</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" t="s">
         <v>131</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" t="s">
         <v>262</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" t="s">
         <v>263</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" t="s">
         <v>137</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" t="s">
         <v>265</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" t="s">
         <v>266</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" t="s">
         <v>141</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="7" t="s">
+    <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" t="s">
         <v>268</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" t="s">
         <v>269</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" t="s">
         <v>145</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="7" t="s">
+    <row r="49" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" t="s">
         <v>271</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" t="s">
         <v>272</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" t="s">
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="4" t="s">
+    <row r="50" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" t="s">
         <v>274</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" t="s">
         <v>177</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" t="s">
         <v>151</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="7" t="s">
+    <row r="51" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" t="s">
         <v>276</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" t="s">
         <v>277</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" t="s">
         <v>155</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="7" t="s">
+    <row r="52" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" t="s">
         <v>279</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" t="s">
         <v>183</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2012,25 +2020,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="51.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="28.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="27.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2046,243 +2054,230 @@
       <c r="E1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="3" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="3" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="3" t="s">
+    </row>
+    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" t="s">
         <v>126</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2290,28 +2285,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="8" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="33.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="31.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.54296875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2340,352 +2337,381 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>6</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>12</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>2</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>12</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>2</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>6</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>12</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>2</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>6</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>12</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>2</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>6</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>12</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>2</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>6</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>12</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>2</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>6</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>12</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>2</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>6</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>12</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>2</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>12</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>2</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>12</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>2</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>6</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>12</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>2</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>1</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>20</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>3</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>280</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>2</v>
+      </c>
+      <c r="G14" s="7">
+        <v>12</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2694,7 +2720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2702,14 +2728,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="38.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="26.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2720,157 +2746,157 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>28</v>
       </c>
     </row>

--- a/IO/input.xlsx
+++ b/IO/input.xlsx
@@ -1,29 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar\Desktop\Important stuff\Elaine\Elaine\IO\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCC586A-9440-44AE-BED0-2E320990AEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="students" sheetId="1" r:id="rId1"/>
-    <sheet name="teachers" sheetId="2" r:id="rId2"/>
-    <sheet name="subjects" sheetId="3" r:id="rId3"/>
-    <sheet name="rooms" sheetId="4" r:id="rId4"/>
+    <sheet r:id="rId1" sheetId="1" name="students"/>
+    <sheet r:id="rId2" sheetId="2" name="teachers"/>
+    <sheet r:id="rId3" sheetId="3" name="subjects"/>
+    <sheet r:id="rId4" sheetId="4" name="rooms"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="282">
   <si>
     <t>ID</t>
   </si>
@@ -241,6 +235,12 @@
     <t>Year 12 further maths</t>
   </si>
   <si>
+    <t>esY12</t>
+  </si>
+  <si>
+    <t>Year 12 spanish</t>
+  </si>
+  <si>
     <t>surname</t>
   </si>
   <si>
@@ -863,19 +863,14 @@
   </si>
   <si>
     <t>Malpas-Ellam</t>
-  </si>
-  <si>
-    <t>esY12</t>
-  </si>
-  <si>
-    <t>Year 12 spanish</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -886,6 +881,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -905,7 +906,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFffff00"/>
       </patternFill>
     </fill>
   </fills>
@@ -919,16 +920,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -943,44 +944,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="13">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -991,10 +1001,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1032,71 +1042,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1124,7 +1134,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1147,11 +1157,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1160,13 +1170,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1176,7 +1186,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1185,7 +1195,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1194,7 +1204,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1202,10 +1212,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1270,7 +1280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1278,740 +1288,740 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="9" width="8.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="70.7192857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" t="s">
         <v>129</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D2" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C3" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D3" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D4" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B5" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D5" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B6" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D6" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B7" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="4" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B9" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D9" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B10" s="3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D10" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B11" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C12" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C12" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D12" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C13" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D13" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C14" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D14" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C15" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D15" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C16" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D16" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C17" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D17" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D18" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C18" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D18" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D19" t="s">
+      <c r="B19" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C20" t="s">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C20" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D20" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C21" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D21" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D22" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C22" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D22" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D23" t="s">
+      <c r="B23" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="B24" t="s">
-        <v>200</v>
-      </c>
-      <c r="C24" t="s">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
+      <c r="B24" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C24" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D24" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D25" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C25" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D25" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D26" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C26" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C27" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+      <c r="D26" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B27" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C27" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D28" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C28" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D28" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D29" t="s">
+      <c r="B29" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B30" t="s">
-        <v>217</v>
-      </c>
-      <c r="C30" t="s">
-        <v>165</v>
-      </c>
-      <c r="D30" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B30" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C30" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D31" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C31" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D31" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D32" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C32" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D32" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="D33" t="s">
+      <c r="B33" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B34" t="s">
-        <v>228</v>
-      </c>
-      <c r="C34" t="s">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D34" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C34" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D34" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="D35" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="6" t="s">
+      <c r="B35" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C35" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D35" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="D36" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="6" t="s">
+      <c r="B36" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C36" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D36" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="D37" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C37" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D37" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="D38" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C38" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D38" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="D39" t="s">
+      <c r="B39" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B40" t="s">
-        <v>246</v>
-      </c>
-      <c r="C40" t="s">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="D40" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B41" t="s">
-        <v>246</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="C40" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D41" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
+      <c r="D40" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B41" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D41" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D42" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C42" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D42" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D43" t="s">
+      <c r="B43" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B44" t="s">
-        <v>257</v>
-      </c>
-      <c r="C44" t="s">
-        <v>177</v>
-      </c>
-      <c r="D44" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B44" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C44" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D45" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C45" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D45" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D46" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C46" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D46" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D47" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="6" t="s">
+      <c r="B47" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C47" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D47" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D48" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="6" t="s">
+      <c r="B48" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C48" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D48" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D49" t="s">
+      <c r="B49" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B50" t="s">
-        <v>274</v>
-      </c>
-      <c r="C50" t="s">
-        <v>177</v>
-      </c>
-      <c r="D50" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B50" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C50" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D51" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="6" t="s">
+      <c r="B51" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C51" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C52" t="s">
-        <v>183</v>
-      </c>
-      <c r="D52" t="s">
-        <v>159</v>
+      <c r="D51" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2020,7 +2030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2028,256 +2038,269 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="51.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="28.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="27.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" t="s">
         <v>77</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F1" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C3" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="D3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F3" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C4" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="D4" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F4" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B5" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="F5" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B6" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C6" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="D6" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E6" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F6" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="F7" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="F8" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="F10" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="B11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="F11" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B12" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="E12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E13" t="s">
+      <c r="C13" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="F13" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B14" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E14" t="s">
-        <v>85</v>
-      </c>
+      <c r="C14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2285,30 +2308,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="8" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="33.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="31.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="10" width="25.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2337,380 +2358,380 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>6</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>12</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>2</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>12</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>2</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>6</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>12</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>2</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>6</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>12</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>2</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>6</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>12</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>2</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>6</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>12</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>2</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>6</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <v>12</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>2</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>6</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="5">
         <v>12</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>2</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <v>1</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="5">
         <v>12</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <v>2</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <v>1</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="5">
         <v>12</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="5">
         <v>2</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <v>6</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="5">
         <v>12</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <v>2</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <v>1</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="5">
         <v>20</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>3</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>280</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="C14" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="E14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="12">
         <v>2</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="12">
         <v>12</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="12">
         <v>1</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="12">
         <v>10</v>
       </c>
     </row>
@@ -2720,22 +2741,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="38.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="26.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2746,157 +2767,157 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="5">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="5">
         <v>28</v>
       </c>
     </row>
